--- a/natmiOut/OldD4/LR-pairs_lrc2p/Hspg2-Itga2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Hspg2-Itga2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>177.805160911397</v>
+        <v>197.1981153333333</v>
       </c>
       <c r="H2">
-        <v>177.805160911397</v>
+        <v>591.594346</v>
       </c>
       <c r="I2">
-        <v>0.4870593079478884</v>
+        <v>0.5013718116429122</v>
       </c>
       <c r="J2">
-        <v>0.4870593079478884</v>
+        <v>0.5302871392468994</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.65732958697911</v>
+        <v>3.042935333333334</v>
       </c>
       <c r="N2">
-        <v>1.65732958697911</v>
+        <v>9.128806000000001</v>
       </c>
       <c r="O2">
-        <v>0.3967744199406166</v>
+        <v>0.5356624298519768</v>
       </c>
       <c r="P2">
-        <v>0.3967744199406166</v>
+        <v>0.5831288282815508</v>
       </c>
       <c r="Q2">
-        <v>294.6817538960398</v>
+        <v>600.0611128145418</v>
       </c>
       <c r="R2">
-        <v>294.6817538960398</v>
+        <v>5400.550015330877</v>
       </c>
       <c r="S2">
-        <v>0.1932526743877016</v>
+        <v>0.26856604288393</v>
       </c>
       <c r="T2">
-        <v>0.1932526743877016</v>
+        <v>0.30922571816182</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>177.805160911397</v>
+        <v>197.1981153333333</v>
       </c>
       <c r="H3">
-        <v>177.805160911397</v>
+        <v>591.594346</v>
       </c>
       <c r="I3">
-        <v>0.4870593079478884</v>
+        <v>0.5013718116429122</v>
       </c>
       <c r="J3">
-        <v>0.4870593079478884</v>
+        <v>0.5302871392468994</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.01028305160397</v>
+        <v>1.067915666666667</v>
       </c>
       <c r="N3">
-        <v>1.01028305160397</v>
+        <v>3.203747</v>
       </c>
       <c r="O3">
-        <v>0.2418676857791798</v>
+        <v>0.1879902916822836</v>
       </c>
       <c r="P3">
-        <v>0.2418676857791798</v>
+        <v>0.2046485853922773</v>
       </c>
       <c r="Q3">
-        <v>179.6335405565011</v>
+        <v>210.5909568016069</v>
       </c>
       <c r="R3">
-        <v>179.6335405565011</v>
+        <v>1895.318611214462</v>
       </c>
       <c r="S3">
-        <v>0.1178039076505647</v>
+        <v>0.09425303311202603</v>
       </c>
       <c r="T3">
-        <v>0.1178039076505647</v>
+        <v>0.1085225128985955</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>177.805160911397</v>
+        <v>197.1981153333333</v>
       </c>
       <c r="H4">
-        <v>177.805160911397</v>
+        <v>591.594346</v>
       </c>
       <c r="I4">
-        <v>0.4870593079478884</v>
+        <v>0.5013718116429122</v>
       </c>
       <c r="J4">
-        <v>0.4870593079478884</v>
+        <v>0.5302871392468994</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.155290287716967</v>
+        <v>0.02258333333333333</v>
       </c>
       <c r="N4">
-        <v>0.155290287716967</v>
+        <v>0.06775</v>
       </c>
       <c r="O4">
-        <v>0.03717740533650878</v>
+        <v>0.003975451950942043</v>
       </c>
       <c r="P4">
-        <v>0.03717740533650878</v>
+        <v>0.004327726771285868</v>
       </c>
       <c r="Q4">
-        <v>27.61141459549246</v>
+        <v>4.453390771277778</v>
       </c>
       <c r="R4">
-        <v>27.61141459549246</v>
+        <v>40.0805169415</v>
       </c>
       <c r="S4">
-        <v>0.0181076013144981</v>
+        <v>0.001993179546743162</v>
       </c>
       <c r="T4">
-        <v>0.0181076013144981</v>
+        <v>0.002294937848987404</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>177.805160911397</v>
+        <v>197.1981153333333</v>
       </c>
       <c r="H5">
-        <v>177.805160911397</v>
+        <v>591.594346</v>
       </c>
       <c r="I5">
-        <v>0.4870593079478884</v>
+        <v>0.5013718116429122</v>
       </c>
       <c r="J5">
-        <v>0.4870593079478884</v>
+        <v>0.5302871392468994</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.35410421853342</v>
+        <v>0.160044</v>
       </c>
       <c r="N5">
-        <v>1.35410421853342</v>
+        <v>0.480132</v>
       </c>
       <c r="O5">
-        <v>0.3241804889436948</v>
+        <v>0.02817330916767092</v>
       </c>
       <c r="P5">
-        <v>0.3241804889436948</v>
+        <v>0.03066981712400039</v>
       </c>
       <c r="Q5">
-        <v>240.7667184671362</v>
+        <v>31.560375170408</v>
       </c>
       <c r="R5">
-        <v>240.7667184671362</v>
+        <v>284.043376533672</v>
       </c>
       <c r="S5">
-        <v>0.1578951245951241</v>
+        <v>0.01412530305737103</v>
       </c>
       <c r="T5">
-        <v>0.1578951245951241</v>
+        <v>0.01626380958391174</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>124.104456267658</v>
+        <v>197.1981153333333</v>
       </c>
       <c r="H6">
-        <v>124.104456267658</v>
+        <v>591.594346</v>
       </c>
       <c r="I6">
-        <v>0.3399576833042308</v>
+        <v>0.5013718116429122</v>
       </c>
       <c r="J6">
-        <v>0.3399576833042308</v>
+        <v>0.5302871392468994</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.65732958697911</v>
+        <v>1.3872175</v>
       </c>
       <c r="N6">
-        <v>1.65732958697911</v>
+        <v>2.774435</v>
       </c>
       <c r="O6">
-        <v>0.3967744199406166</v>
+        <v>0.2441985173471266</v>
       </c>
       <c r="P6">
-        <v>0.3967744199406166</v>
+        <v>0.1772250424308857</v>
       </c>
       <c r="Q6">
-        <v>205.6819872483447</v>
+        <v>273.5566765574183</v>
       </c>
       <c r="R6">
-        <v>205.6819872483447</v>
+        <v>1641.34005934451</v>
       </c>
       <c r="S6">
-        <v>0.134886512597392</v>
+        <v>0.122434253042842</v>
       </c>
       <c r="T6">
-        <v>0.134886512597392</v>
+        <v>0.09398016075358474</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>124.104456267658</v>
+        <v>131.273506</v>
       </c>
       <c r="H7">
-        <v>124.104456267658</v>
+        <v>393.820518</v>
       </c>
       <c r="I7">
-        <v>0.3399576833042308</v>
+        <v>0.3337599622221713</v>
       </c>
       <c r="J7">
-        <v>0.3399576833042308</v>
+        <v>0.3530087082119477</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.01028305160397</v>
+        <v>3.042935333333334</v>
       </c>
       <c r="N7">
-        <v>1.01028305160397</v>
+        <v>9.128806000000001</v>
       </c>
       <c r="O7">
-        <v>0.2418676857791798</v>
+        <v>0.5356624298519768</v>
       </c>
       <c r="P7">
-        <v>0.2418676857791798</v>
+        <v>0.5831288282815508</v>
       </c>
       <c r="Q7">
-        <v>125.380628795741</v>
+        <v>399.4567897379454</v>
       </c>
       <c r="R7">
-        <v>125.380628795741</v>
+        <v>3595.111107641508</v>
       </c>
       <c r="S7">
-        <v>0.08222477812364562</v>
+        <v>0.1787826723512322</v>
       </c>
       <c r="T7">
-        <v>0.08222477812364562</v>
+        <v>0.2058495543928169</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>124.104456267658</v>
+        <v>131.273506</v>
       </c>
       <c r="H8">
-        <v>124.104456267658</v>
+        <v>393.820518</v>
       </c>
       <c r="I8">
-        <v>0.3399576833042308</v>
+        <v>0.3337599622221713</v>
       </c>
       <c r="J8">
-        <v>0.3399576833042308</v>
+        <v>0.3530087082119477</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.155290287716967</v>
+        <v>1.067915666666667</v>
       </c>
       <c r="N8">
-        <v>0.155290287716967</v>
+        <v>3.203747</v>
       </c>
       <c r="O8">
-        <v>0.03717740533650878</v>
+        <v>0.1879902916822836</v>
       </c>
       <c r="P8">
-        <v>0.03717740533650878</v>
+        <v>0.2046485853922773</v>
       </c>
       <c r="Q8">
-        <v>19.27221672076236</v>
+        <v>140.1890336756607</v>
       </c>
       <c r="R8">
-        <v>19.27221672076236</v>
+        <v>1261.701303080946</v>
       </c>
       <c r="S8">
-        <v>0.01263874458946187</v>
+        <v>0.06274363265001394</v>
       </c>
       <c r="T8">
-        <v>0.01263874458946187</v>
+        <v>0.07224273276673028</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>124.104456267658</v>
+        <v>131.273506</v>
       </c>
       <c r="H9">
-        <v>124.104456267658</v>
+        <v>393.820518</v>
       </c>
       <c r="I9">
-        <v>0.3399576833042308</v>
+        <v>0.3337599622221713</v>
       </c>
       <c r="J9">
-        <v>0.3399576833042308</v>
+        <v>0.3530087082119477</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.35410421853342</v>
+        <v>0.02258333333333333</v>
       </c>
       <c r="N9">
-        <v>1.35410421853342</v>
+        <v>0.06775</v>
       </c>
       <c r="O9">
-        <v>0.3241804889436948</v>
+        <v>0.003975451950942043</v>
       </c>
       <c r="P9">
-        <v>0.3241804889436948</v>
+        <v>0.004327726771285868</v>
       </c>
       <c r="Q9">
-        <v>168.050367770832</v>
+        <v>2.964593343833333</v>
       </c>
       <c r="R9">
-        <v>168.050367770832</v>
+        <v>26.6813400945</v>
       </c>
       <c r="S9">
-        <v>0.1102076479937313</v>
+        <v>0.001326846692962473</v>
       </c>
       <c r="T9">
-        <v>0.1102076479937313</v>
+        <v>0.001527725237025888</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.188644155035509</v>
+        <v>131.273506</v>
       </c>
       <c r="H10">
-        <v>0.188644155035509</v>
+        <v>393.820518</v>
       </c>
       <c r="I10">
-        <v>0.0005167504201174162</v>
+        <v>0.3337599622221713</v>
       </c>
       <c r="J10">
-        <v>0.0005167504201174162</v>
+        <v>0.3530087082119477</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.65732958697911</v>
+        <v>0.160044</v>
       </c>
       <c r="N10">
-        <v>1.65732958697911</v>
+        <v>0.480132</v>
       </c>
       <c r="O10">
-        <v>0.3967744199406166</v>
+        <v>0.02817330916767092</v>
       </c>
       <c r="P10">
-        <v>0.3967744199406166</v>
+        <v>0.03066981712400039</v>
       </c>
       <c r="Q10">
-        <v>0.3126455395510233</v>
+        <v>21.009536994264</v>
       </c>
       <c r="R10">
-        <v>0.3126455395510233</v>
+        <v>189.085832948376</v>
       </c>
       <c r="S10">
-        <v>0.0002050333481961578</v>
+        <v>0.009403122603475398</v>
       </c>
       <c r="T10">
-        <v>0.0002050333481961578</v>
+        <v>0.01082671252404005</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.188644155035509</v>
+        <v>131.273506</v>
       </c>
       <c r="H11">
-        <v>0.188644155035509</v>
+        <v>393.820518</v>
       </c>
       <c r="I11">
-        <v>0.0005167504201174162</v>
+        <v>0.3337599622221713</v>
       </c>
       <c r="J11">
-        <v>0.0005167504201174162</v>
+        <v>0.3530087082119477</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.01028305160397</v>
+        <v>1.3872175</v>
       </c>
       <c r="N11">
-        <v>1.01028305160397</v>
+        <v>2.774435</v>
       </c>
       <c r="O11">
-        <v>0.2418676857791798</v>
+        <v>0.2441985173471266</v>
       </c>
       <c r="P11">
-        <v>0.2418676857791798</v>
+        <v>0.1772250424308857</v>
       </c>
       <c r="Q11">
-        <v>0.1905839926165264</v>
+        <v>182.104904809555</v>
       </c>
       <c r="R11">
-        <v>0.1905839926165264</v>
+        <v>1092.62942885733</v>
       </c>
       <c r="S11">
-        <v>0.0001249852282392184</v>
+        <v>0.08150368792448721</v>
       </c>
       <c r="T11">
-        <v>0.0001249852282392184</v>
+        <v>0.0625619832913346</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.188644155035509</v>
+        <v>0.278468</v>
       </c>
       <c r="H12">
-        <v>0.188644155035509</v>
+        <v>0.835404</v>
       </c>
       <c r="I12">
-        <v>0.0005167504201174162</v>
+        <v>0.0007079986814710624</v>
       </c>
       <c r="J12">
-        <v>0.0005167504201174162</v>
+        <v>0.0007488306814808822</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.155290287716967</v>
+        <v>3.042935333333334</v>
       </c>
       <c r="N12">
-        <v>0.155290287716967</v>
+        <v>9.128806000000001</v>
       </c>
       <c r="O12">
-        <v>0.03717740533650878</v>
+        <v>0.5356624298519768</v>
       </c>
       <c r="P12">
-        <v>0.03717740533650878</v>
+        <v>0.5831288282815508</v>
       </c>
       <c r="Q12">
-        <v>0.02929460511158832</v>
+        <v>0.8473601164026667</v>
       </c>
       <c r="R12">
-        <v>0.02929460511158832</v>
+        <v>7.626241047624001</v>
       </c>
       <c r="S12">
-        <v>1.921143982651638E-05</v>
+        <v>0.000379248294048785</v>
       </c>
       <c r="T12">
-        <v>1.921143982651638E-05</v>
+        <v>0.000436664757873222</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.188644155035509</v>
+        <v>0.278468</v>
       </c>
       <c r="H13">
-        <v>0.188644155035509</v>
+        <v>0.835404</v>
       </c>
       <c r="I13">
-        <v>0.0005167504201174162</v>
+        <v>0.0007079986814710624</v>
       </c>
       <c r="J13">
-        <v>0.0005167504201174162</v>
+        <v>0.0007488306814808822</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.35410421853342</v>
+        <v>1.067915666666667</v>
       </c>
       <c r="N13">
-        <v>1.35410421853342</v>
+        <v>3.203747</v>
       </c>
       <c r="O13">
-        <v>0.3241804889436948</v>
+        <v>0.1879902916822836</v>
       </c>
       <c r="P13">
-        <v>0.3241804889436948</v>
+        <v>0.2046485853922773</v>
       </c>
       <c r="Q13">
-        <v>0.2554438461352552</v>
+        <v>0.2973803398653334</v>
       </c>
       <c r="R13">
-        <v>0.2554438461352552</v>
+        <v>2.676423058788</v>
       </c>
       <c r="S13">
-        <v>0.0001675204038555237</v>
+        <v>0.0001330968786404172</v>
       </c>
       <c r="T13">
-        <v>0.0001675204038555237</v>
+        <v>0.0001532471396633975</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.194865120116253</v>
+        <v>0.278468</v>
       </c>
       <c r="H14">
-        <v>0.194865120116253</v>
+        <v>0.835404</v>
       </c>
       <c r="I14">
-        <v>0.000533791426865837</v>
+        <v>0.0007079986814710624</v>
       </c>
       <c r="J14">
-        <v>0.000533791426865837</v>
+        <v>0.0007488306814808822</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>1.65732958697911</v>
+        <v>0.02258333333333333</v>
       </c>
       <c r="N14">
-        <v>1.65732958697911</v>
+        <v>0.06775</v>
       </c>
       <c r="O14">
-        <v>0.3967744199406166</v>
+        <v>0.003975451950942043</v>
       </c>
       <c r="P14">
-        <v>0.3967744199406166</v>
+        <v>0.004327726771285868</v>
       </c>
       <c r="Q14">
-        <v>0.3229557290389043</v>
+        <v>0.006288735666666666</v>
       </c>
       <c r="R14">
-        <v>0.3229557290389043</v>
+        <v>0.05659862100000001</v>
       </c>
       <c r="S14">
-        <v>0.0002117947837639666</v>
+        <v>2.814614739518528E-06</v>
       </c>
       <c r="T14">
-        <v>0.0002117947837639666</v>
+        <v>3.240734587405054E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.194865120116253</v>
+        <v>0.278468</v>
       </c>
       <c r="H15">
-        <v>0.194865120116253</v>
+        <v>0.835404</v>
       </c>
       <c r="I15">
-        <v>0.000533791426865837</v>
+        <v>0.0007079986814710624</v>
       </c>
       <c r="J15">
-        <v>0.000533791426865837</v>
+        <v>0.0007488306814808822</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.01028305160397</v>
+        <v>0.160044</v>
       </c>
       <c r="N15">
-        <v>1.01028305160397</v>
+        <v>0.480132</v>
       </c>
       <c r="O15">
-        <v>0.2418676857791798</v>
+        <v>0.02817330916767092</v>
       </c>
       <c r="P15">
-        <v>0.2418676857791798</v>
+        <v>0.03066981712400039</v>
       </c>
       <c r="Q15">
-        <v>0.1968689282022223</v>
+        <v>0.044567132592</v>
       </c>
       <c r="R15">
-        <v>0.1968689282022223</v>
+        <v>0.401104193328</v>
       </c>
       <c r="S15">
-        <v>0.0001291068971048063</v>
+        <v>1.99466657433876E-05</v>
       </c>
       <c r="T15">
-        <v>0.0001291068971048063</v>
+        <v>2.296650005785924E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.194865120116253</v>
+        <v>0.278468</v>
       </c>
       <c r="H16">
-        <v>0.194865120116253</v>
+        <v>0.835404</v>
       </c>
       <c r="I16">
-        <v>0.000533791426865837</v>
+        <v>0.0007079986814710624</v>
       </c>
       <c r="J16">
-        <v>0.000533791426865837</v>
+        <v>0.0007488306814808822</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.155290287716967</v>
+        <v>1.3872175</v>
       </c>
       <c r="N16">
-        <v>0.155290287716967</v>
+        <v>2.774435</v>
       </c>
       <c r="O16">
-        <v>0.03717740533650878</v>
+        <v>0.2441985173471266</v>
       </c>
       <c r="P16">
-        <v>0.03717740533650878</v>
+        <v>0.1772250424308857</v>
       </c>
       <c r="Q16">
-        <v>0.03026066056885427</v>
+        <v>0.38629568279</v>
       </c>
       <c r="R16">
-        <v>0.03026066056885427</v>
+        <v>2.31777409674</v>
       </c>
       <c r="S16">
-        <v>1.98449802417446E-05</v>
+        <v>0.000172892228298954</v>
       </c>
       <c r="T16">
-        <v>1.98449802417446E-05</v>
+        <v>0.0001327115492989984</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.194865120116253</v>
+        <v>0.2270173333333333</v>
       </c>
       <c r="H17">
-        <v>0.194865120116253</v>
+        <v>0.681052</v>
       </c>
       <c r="I17">
-        <v>0.000533791426865837</v>
+        <v>0.0005771865085793579</v>
       </c>
       <c r="J17">
-        <v>0.000533791426865837</v>
+        <v>0.0006104742535155658</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.35410421853342</v>
+        <v>3.042935333333334</v>
       </c>
       <c r="N17">
-        <v>1.35410421853342</v>
+        <v>9.128806000000001</v>
       </c>
       <c r="O17">
-        <v>0.3241804889436948</v>
+        <v>0.5356624298519768</v>
       </c>
       <c r="P17">
-        <v>0.3241804889436948</v>
+        <v>0.5831288282815508</v>
       </c>
       <c r="Q17">
-        <v>0.2638676811944398</v>
+        <v>0.6907990648791111</v>
       </c>
       <c r="R17">
-        <v>0.2638676811944398</v>
+        <v>6.217191583912</v>
       </c>
       <c r="S17">
-        <v>0.0001730447657553196</v>
+        <v>0.0003091771276633977</v>
       </c>
       <c r="T17">
-        <v>0.0001730447657553196</v>
+        <v>0.0003559851361485863</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>62.7654157191024</v>
+        <v>0.2270173333333333</v>
       </c>
       <c r="H18">
-        <v>62.7654157191024</v>
+        <v>0.681052</v>
       </c>
       <c r="I18">
-        <v>0.1719324669008976</v>
+        <v>0.0005771865085793579</v>
       </c>
       <c r="J18">
-        <v>0.1719324669008976</v>
+        <v>0.0006104742535155658</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.65732958697911</v>
+        <v>1.067915666666667</v>
       </c>
       <c r="N18">
-        <v>1.65732958697911</v>
+        <v>3.203747</v>
       </c>
       <c r="O18">
-        <v>0.3967744199406166</v>
+        <v>0.1879902916822836</v>
       </c>
       <c r="P18">
-        <v>0.3967744199406166</v>
+        <v>0.2046485853922773</v>
       </c>
       <c r="Q18">
-        <v>104.0229805103121</v>
+        <v>0.2424353668715556</v>
       </c>
       <c r="R18">
-        <v>104.0229805103121</v>
+        <v>2.181918301844</v>
       </c>
       <c r="S18">
-        <v>0.06821840482356291</v>
+        <v>0.0001085054601029124</v>
       </c>
       <c r="T18">
-        <v>0.06821840482356291</v>
+        <v>0.000124932692400367</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>62.7654157191024</v>
+        <v>0.2270173333333333</v>
       </c>
       <c r="H19">
-        <v>62.7654157191024</v>
+        <v>0.681052</v>
       </c>
       <c r="I19">
-        <v>0.1719324669008976</v>
+        <v>0.0005771865085793579</v>
       </c>
       <c r="J19">
-        <v>0.1719324669008976</v>
+        <v>0.0006104742535155658</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>1.01028305160397</v>
+        <v>0.02258333333333333</v>
       </c>
       <c r="N19">
-        <v>1.01028305160397</v>
+        <v>0.06775</v>
       </c>
       <c r="O19">
-        <v>0.2418676857791798</v>
+        <v>0.003975451950942043</v>
       </c>
       <c r="P19">
-        <v>0.2418676857791798</v>
+        <v>0.004327726771285868</v>
       </c>
       <c r="Q19">
-        <v>63.41083572788656</v>
+        <v>0.005126808111111111</v>
       </c>
       <c r="R19">
-        <v>63.41083572788656</v>
+        <v>0.046141273</v>
       </c>
       <c r="S19">
-        <v>0.04158490787962554</v>
+        <v>2.294577231589234E-06</v>
       </c>
       <c r="T19">
-        <v>0.04158490787962554</v>
+        <v>2.64196577012007E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,57 +1650,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>62.7654157191024</v>
+        <v>0.2270173333333333</v>
       </c>
       <c r="H20">
-        <v>62.7654157191024</v>
+        <v>0.681052</v>
       </c>
       <c r="I20">
-        <v>0.1719324669008976</v>
+        <v>0.0005771865085793579</v>
       </c>
       <c r="J20">
-        <v>0.1719324669008976</v>
+        <v>0.0006104742535155658</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.155290287716967</v>
+        <v>0.160044</v>
       </c>
       <c r="N20">
-        <v>0.155290287716967</v>
+        <v>0.480132</v>
       </c>
       <c r="O20">
-        <v>0.03717740533650878</v>
+        <v>0.02817330916767092</v>
       </c>
       <c r="P20">
-        <v>0.03717740533650878</v>
+        <v>0.03066981712400039</v>
       </c>
       <c r="Q20">
-        <v>9.746859465694456</v>
+        <v>0.036332762096</v>
       </c>
       <c r="R20">
-        <v>9.746859465694456</v>
+        <v>0.326994858864</v>
       </c>
       <c r="S20">
-        <v>0.006392003012480548</v>
+        <v>1.626125395361479E-05</v>
       </c>
       <c r="T20">
-        <v>0.006392003012480548</v>
+        <v>1.872313371423306E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>62.7654157191024</v>
+        <v>0.2270173333333333</v>
       </c>
       <c r="H21">
-        <v>62.7654157191024</v>
+        <v>0.681052</v>
       </c>
       <c r="I21">
-        <v>0.1719324669008976</v>
+        <v>0.0005771865085793579</v>
       </c>
       <c r="J21">
-        <v>0.1719324669008976</v>
+        <v>0.0006104742535155658</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.35410421853342</v>
+        <v>1.3872175</v>
       </c>
       <c r="N21">
-        <v>1.35410421853342</v>
+        <v>2.774435</v>
       </c>
       <c r="O21">
-        <v>0.3241804889436948</v>
+        <v>0.2441985173471266</v>
       </c>
       <c r="P21">
-        <v>0.3241804889436948</v>
+        <v>0.1772250424308857</v>
       </c>
       <c r="Q21">
-        <v>84.99091420324039</v>
+        <v>0.3149224176033333</v>
       </c>
       <c r="R21">
-        <v>84.99091420324039</v>
+        <v>1.88953450562</v>
       </c>
       <c r="S21">
-        <v>0.05573715118522861</v>
+        <v>0.0001409480896278438</v>
       </c>
       <c r="T21">
-        <v>0.05573715118522861</v>
+        <v>0.0001081913254822594</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>64.34001000000001</v>
+      </c>
+      <c r="H22">
+        <v>128.68002</v>
+      </c>
+      <c r="I22">
+        <v>0.1635830409448661</v>
+      </c>
+      <c r="J22">
+        <v>0.1153448476061565</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.042935333333334</v>
+      </c>
+      <c r="N22">
+        <v>9.128806000000001</v>
+      </c>
+      <c r="O22">
+        <v>0.5356624298519768</v>
+      </c>
+      <c r="P22">
+        <v>0.5831288282815508</v>
+      </c>
+      <c r="Q22">
+        <v>195.78248977602</v>
+      </c>
+      <c r="R22">
+        <v>1174.69493865612</v>
+      </c>
+      <c r="S22">
+        <v>0.08762528919510237</v>
+      </c>
+      <c r="T22">
+        <v>0.06726090583289206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>64.34001000000001</v>
+      </c>
+      <c r="H23">
+        <v>128.68002</v>
+      </c>
+      <c r="I23">
+        <v>0.1635830409448661</v>
+      </c>
+      <c r="J23">
+        <v>0.1153448476061565</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.067915666666667</v>
+      </c>
+      <c r="N23">
+        <v>3.203747</v>
+      </c>
+      <c r="O23">
+        <v>0.1879902916822836</v>
+      </c>
+      <c r="P23">
+        <v>0.2046485853922773</v>
+      </c>
+      <c r="Q23">
+        <v>68.70970467249001</v>
+      </c>
+      <c r="R23">
+        <v>412.25822803494</v>
+      </c>
+      <c r="S23">
+        <v>0.03075202358150032</v>
+      </c>
+      <c r="T23">
+        <v>0.02360515989488772</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>64.34001000000001</v>
+      </c>
+      <c r="H24">
+        <v>128.68002</v>
+      </c>
+      <c r="I24">
+        <v>0.1635830409448661</v>
+      </c>
+      <c r="J24">
+        <v>0.1153448476061565</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.02258333333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.06775</v>
+      </c>
+      <c r="O24">
+        <v>0.003975451950942043</v>
+      </c>
+      <c r="P24">
+        <v>0.004327726771285868</v>
+      </c>
+      <c r="Q24">
+        <v>1.4530118925</v>
+      </c>
+      <c r="R24">
+        <v>8.718071355000001</v>
+      </c>
+      <c r="S24">
+        <v>0.0006503165192652999</v>
+      </c>
+      <c r="T24">
+        <v>0.0004991809849150521</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>64.34001000000001</v>
+      </c>
+      <c r="H25">
+        <v>128.68002</v>
+      </c>
+      <c r="I25">
+        <v>0.1635830409448661</v>
+      </c>
+      <c r="J25">
+        <v>0.1153448476061565</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.160044</v>
+      </c>
+      <c r="N25">
+        <v>0.480132</v>
+      </c>
+      <c r="O25">
+        <v>0.02817330916767092</v>
+      </c>
+      <c r="P25">
+        <v>0.03066981712400039</v>
+      </c>
+      <c r="Q25">
+        <v>10.29723256044</v>
+      </c>
+      <c r="R25">
+        <v>61.78339536264001</v>
+      </c>
+      <c r="S25">
+        <v>0.004608675587127482</v>
+      </c>
+      <c r="T25">
+        <v>0.003537605382276513</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>64.34001000000001</v>
+      </c>
+      <c r="H26">
+        <v>128.68002</v>
+      </c>
+      <c r="I26">
+        <v>0.1635830409448661</v>
+      </c>
+      <c r="J26">
+        <v>0.1153448476061565</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.3872175</v>
+      </c>
+      <c r="N26">
+        <v>2.774435</v>
+      </c>
+      <c r="O26">
+        <v>0.2441985173471266</v>
+      </c>
+      <c r="P26">
+        <v>0.1772250424308857</v>
+      </c>
+      <c r="Q26">
+        <v>89.25358782217501</v>
+      </c>
+      <c r="R26">
+        <v>357.0143512887</v>
+      </c>
+      <c r="S26">
+        <v>0.0399467360618706</v>
+      </c>
+      <c r="T26">
+        <v>0.02044199551118513</v>
       </c>
     </row>
   </sheetData>
